--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_38.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3954628.728051427</v>
+        <v>3951611.137650491</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051494</v>
+        <v>682213.881805149</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>122.2372630562606</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>123.2264323245079</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="D4" t="n">
-        <v>73.31370764131968</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>198.0379691764007</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>370.3495567439763</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>71.70069904471018</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>251.1134797617039</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>183.9474437627386</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>175.7730064897158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>78.13981344678626</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>47.14167849255939</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>121.9303464341697</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.34935715613855</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>27.37255160319397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>61.81052995517261</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>180.6645312963699</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648052003</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467007</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231534</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>66.90445977359197</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689871</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857162</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692843</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329051</v>
       </c>
       <c r="G31" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373686</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789599</v>
+        <v>80.78193823789537</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463123</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415525</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3013,7 +3013,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y31" t="n">
         <v>150.4527632224541</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415412</v>
+        <v>41.83246227415277</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111321</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415322</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287493</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
         <v>218.1054622689367</v>
@@ -3509,19 +3509,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722652</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463316</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415322</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378954</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3952,7 +3952,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689375</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -3977,16 +3977,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710094</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>164.2100584890557</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2035.589960916693</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C2" t="n">
-        <v>1666.627443976281</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.361745369531</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="E2" t="n">
-        <v>922.5734927712865</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>178.4141255824937</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4364,16 +4364,16 @@
         <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>2035.589960916693</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>2035.589960916693</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>654.0747340636873</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4528,10 +4528,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>1211.208450635683</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>1211.208450635683</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>852.942752028933</v>
       </c>
       <c r="E5" t="n">
         <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2169.72394915887</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X5" t="n">
-        <v>1796.25819089779</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="Y5" t="n">
-        <v>1406.118858921978</v>
+        <v>1597.808290699805</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3478788207</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>478.1404579642301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>478.1404579642301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>478.1404579642301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>478.1404579642301</v>
+        <v>474.4790046491578</v>
       </c>
       <c r="X7" t="n">
-        <v>478.1404579642301</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.3478788207</v>
+        <v>246.4894537511405</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>799.8716139843725</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>799.8716139843725</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>614.0661152341315</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358873</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2245.937243117025</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>1914.874355773455</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.476704221264</v>
+        <v>1562.105700503341</v>
       </c>
       <c r="X8" t="n">
-        <v>1190.010945960184</v>
+        <v>1188.639942242261</v>
       </c>
       <c r="Y8" t="n">
-        <v>799.8716139843725</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.3478788206999</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3478788206999</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788206999</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788206999</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788206999</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788206999</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4972,40 +4972,40 @@
         <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124032</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>257.3478788206999</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>257.3478788206999</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>257.3478788206999</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>257.3478788206999</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>257.3478788206999</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>257.3478788206999</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,28 +5024,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>557.490562163493</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>388.5543792355861</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>388.5543792355861</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>388.5543792355861</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>388.5543792355861</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>220.3790575554067</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.92115703528</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>959.9316061372629</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>739.1390269937327</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,46 +5261,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,13 +5352,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L15" t="n">
         <v>891.4406401619856</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>404.494230678103</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>256.5811370957099</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>109.6911895977995</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>109.6911895977995</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344999</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3704617344999</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="Y16" t="n">
-        <v>892.7214197110717</v>
+        <v>554.6108700904388</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5528,37 +5528,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5774,28 +5774,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>328.5881531307914</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>159.6519702028845</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>159.6519702028845</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>159.6519702028845</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>159.6519702028845</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V22" t="n">
-        <v>1075.21084526296</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W22" t="n">
-        <v>1075.21084526296</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="X22" t="n">
-        <v>1075.21084526296</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="Y22" t="n">
-        <v>892.7214197110717</v>
+        <v>510.2366179610311</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L24" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,31 +6163,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028589</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028589</v>
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6248,28 +6248,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383442</v>
+        <v>4633.687647031311</v>
       </c>
       <c r="V28" t="n">
-        <v>675.0071030383442</v>
+        <v>4379.003158825424</v>
       </c>
       <c r="W28" t="n">
-        <v>385.5899330013836</v>
+        <v>4089.585988788464</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>3861.596437890446</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>3640.803858746916</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6485,28 +6485,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341678</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D31" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E31" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504518</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103134</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649698</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184158</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384658</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986521</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901032</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="32">
@@ -6677,67 +6677,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3481.793971740469</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>3381.677879852603</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>3300.381331480308</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>3221.288328937956</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>3143.218472480087</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>3043.863241839948</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>2962.265324427933</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>2919.550824089921</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>2999.384087782175</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>3217.020063255131</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>3532.182679494605</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M34" t="n">
-        <v>3871.199993490132</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
-        <v>4209.194673746024</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>4510.520222979765</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>4754.570558813793</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>4818.599560616158</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>4687.499641571751</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>4532.534317401299</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>4312.225769654898</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>4126.361372489052</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>3905.764293492132</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>3746.594833634156</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>3594.622345530667</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550606</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003444</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.3049164052</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155922</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805503</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,40 +6947,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014296</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231267</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141871</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465305</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121734</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.52631485162</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.06055659054</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614728</v>
       </c>
     </row>
     <row r="36">
@@ -6990,52 +6990,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H36" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550606</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003444</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7184,40 +7184,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207832</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014296</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231267</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141871</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465305</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121734</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.52631485162</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.06055659054</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614728</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H39" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3481.793971740471</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>3381.677879852605</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>3300.38133148031</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>3221.288328937958</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>3143.218472480089</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>3043.86324183995</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>2962.265324427935</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>2919.550824089921</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J40" t="n">
-        <v>2999.384087782175</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>3217.020063255131</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>3532.182679494605</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M40" t="n">
-        <v>3871.199993490132</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
-        <v>4209.194673746024</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O40" t="n">
-        <v>4510.520222979765</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>4754.570558813793</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>4818.59956061616</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>4687.499641571753</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>4532.534317401301</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>4312.2257696549</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>4126.361372489054</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>3905.764293492134</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>3746.594833634158</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>3594.622345530669</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7424,13 +7424,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014294</v>
@@ -7439,22 +7439,22 @@
         <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>2500.819361250805</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>2911.709630095318</v>
       </c>
       <c r="L42" t="n">
-        <v>921.193690363625</v>
+        <v>3158.474758001782</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281744</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945777</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164474</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.74515569858</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7646,28 +7646,28 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014294</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.9563154684963</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C46" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028589</v>
@@ -7807,13 +7807,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7822,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y46" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
   </sheetData>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451757</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504737</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L15" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>230.7151863772033</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928322</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10191,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>15.8380490462277</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>253.7371603504736</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729847</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>85.30006332127709</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10686,7 +10686,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119859</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>360.5026862907245</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298383</v>
+        <v>65.71641987298287</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776731</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298383</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>26.98348193336646</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>136.5644712113976</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.2121017489008</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>104.683038508205</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>37.92012205572493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>61.34209567542396</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>158.8051956154452</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.62192169288161</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26071,13 +26071,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>639904.3715111975</v>
+        <v>639904.3715111976</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>639904.3715111974</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710688</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.681371069</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>779989.6813710689</v>
       </c>
-      <c r="D2" t="n">
-        <v>779989.681371069</v>
-      </c>
       <c r="E2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.213501647</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016469</v>
       </c>
       <c r="G2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016475</v>
       </c>
       <c r="H2" t="n">
         <v>742955.2135016473</v>
       </c>
       <c r="I2" t="n">
-        <v>742955.2135016475</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="J2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="K2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="M2" t="n">
         <v>779989.6813710695</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="O2" t="n">
         <v>779989.6813710696</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371259</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143901</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.5006543095</v>
+        <v>15045.66962143902</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430942</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143902</v>
       </c>
       <c r="K4" t="n">
-        <v>37130.28789562998</v>
+        <v>37464.45686275953</v>
       </c>
       <c r="L4" t="n">
-        <v>37130.28789562998</v>
+        <v>37464.45686275952</v>
       </c>
       <c r="M4" t="n">
-        <v>37130.28789562998</v>
+        <v>37464.45686275944</v>
       </c>
       <c r="N4" t="n">
-        <v>37130.28789562998</v>
+        <v>37464.45686275943</v>
       </c>
       <c r="O4" t="n">
-        <v>37130.28789562991</v>
+        <v>37464.45686275951</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430942</v>
+        <v>15045.66962143901</v>
       </c>
     </row>
     <row r="5">
@@ -26470,43 +26470,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002543</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002543</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002546</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002546</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002543</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871667</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49197.0196486403</v>
+        <v>-49612.23415810778</v>
       </c>
       <c r="C6" t="n">
-        <v>540770.8595659041</v>
+        <v>540355.645056437</v>
       </c>
       <c r="D6" t="n">
-        <v>540770.8595659041</v>
+        <v>540355.6450564369</v>
       </c>
       <c r="E6" t="n">
-        <v>111096.3504217251</v>
+        <v>110762.1814545954</v>
       </c>
       <c r="F6" t="n">
-        <v>636256.3868986211</v>
+        <v>635922.2179314912</v>
       </c>
       <c r="G6" t="n">
-        <v>636256.3868986209</v>
+        <v>635922.2179314918</v>
       </c>
       <c r="H6" t="n">
-        <v>636256.3868986212</v>
+        <v>635922.2179314917</v>
       </c>
       <c r="I6" t="n">
-        <v>636256.3868986215</v>
+        <v>635922.2179314916</v>
       </c>
       <c r="J6" t="n">
-        <v>459833.1677060281</v>
+        <v>459498.9987388987</v>
       </c>
       <c r="K6" t="n">
-        <v>590638.7755517014</v>
+        <v>590304.6065845718</v>
       </c>
       <c r="L6" t="n">
-        <v>645144.2876554141</v>
+        <v>644810.1186882844</v>
       </c>
       <c r="M6" t="n">
-        <v>510343.2724215771</v>
+        <v>510009.1034544474</v>
       </c>
       <c r="N6" t="n">
-        <v>645144.2876554137</v>
+        <v>644810.1186882847</v>
       </c>
       <c r="O6" t="n">
-        <v>645144.2876554143</v>
+        <v>644810.1186882847</v>
       </c>
       <c r="P6" t="n">
-        <v>636256.386898621</v>
+        <v>635922.2179314914</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,43 +26741,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26802,28 +26802,28 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253574</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
     </row>
     <row r="3">
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>284.6387826854508</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>290.5577376962871</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D4" t="n">
-        <v>75.30176537689267</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>184.6958724870799</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>11.58081332828544</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,13 +27783,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>153.3344064133741</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>35.40951857488713</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>170.7355978579444</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>75.45116101857349</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>146.895292011298</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>171.4429748595354</v>
       </c>
     </row>
     <row r="11">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31516,10 +31516,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31531,28 +31531,28 @@
         <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31592,13 +31592,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
         <v>76.7639270839648</v>
@@ -31613,7 +31613,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923048</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,16 +31674,16 @@
         <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
         <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,19 +31692,19 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32473,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,43 +33257,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,37 +33421,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33527,7 +33527,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,37 +33658,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,37 +33895,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,37 +34132,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,37 +34369,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34475,7 +34475,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35179,7 +35179,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492238</v>
@@ -35188,7 +35188,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
         <v>153.997506289869</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819984</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L15" t="n">
-        <v>609.7603912467498</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>479.9728913332276</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>326.2624260966942</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520631</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595514</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095694</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086134</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352445</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502437</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414416</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015155</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,13 +37230,13 @@
         <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>367.6637655623854</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,13 +37467,13 @@
         <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081138</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467489</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,13 +37704,13 @@
         <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502436</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091978</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,13 +37941,13 @@
         <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502436</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4026709.92306262</v>
+        <v>4019692.908170909</v>
       </c>
     </row>
     <row r="7">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>307.5402065984691</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>78.40904800482144</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>147.4063697019277</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>264.1302720408265</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>163.0793702451209</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>207.5912001051811</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>93.25488834459203</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>118.8460297402138</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>97.36779394167111</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686257</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>207.0920728594996</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>10.2312158738353</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>95.67215651543168</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>216.6003366839481</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>105.0903281190973</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>24.98000491003324</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>42.52548868900445</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>104.3542750483873</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>101.2898147863558</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="29">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>13.20203877768258</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.26570573644476</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.65016011124324</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.6971535211468</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>91.94988401775056</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>122.6519788371599</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>63.54046658568105</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9576419790511</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>183.127052507485</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>433.0775852377275</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C2" t="n">
-        <v>433.0775852377275</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>852.1958518702625</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>845.250351121059</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.282515538741</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1209.816757277661</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>819.6774253018493</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4412,10 +4412,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>597.2403795762991</v>
+        <v>1494.518401093285</v>
       </c>
       <c r="C5" t="n">
-        <v>228.2778626358874</v>
+        <v>1125.555884152873</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>767.2901855461225</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>767.2901855461225</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>356.304280756515</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>1373.979551616233</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y5" t="n">
-        <v>983.8402196404209</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4661,28 +4661,28 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1470.569074795015</v>
+        <v>1865.381229508783</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1496.418712568371</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>752.3647613633761</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>341.3788565737686</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>327.4554525123595</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.168914859137</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.840561024597</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C10" t="n">
-        <v>513.840561024597</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D10" t="n">
-        <v>415.489254012808</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5126,13 +5126,13 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
         <v>2123.441607278215</v>
@@ -5226,22 +5226,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1089.812348494162</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>800.6837097077201</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>545.9992215018333</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y13" t="n">
         <v>97.21709146028584</v>
@@ -5269,19 +5269,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>426.1449830812445</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C16" t="n">
-        <v>426.1449830812445</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>426.1449830812445</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>426.1449830812445</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>426.1449830812445</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>257.9696614010651</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>107.5516529490084</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>874.927113122792</v>
+        <v>867.4971998900063</v>
       </c>
       <c r="V16" t="n">
-        <v>874.927113122792</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="W16" t="n">
-        <v>874.927113122792</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="X16" t="n">
-        <v>646.9375622247746</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="Y16" t="n">
-        <v>426.1449830812445</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5512,55 +5512,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1056.342636474733</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>801.6581482688464</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>801.6581482688464</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>573.668597370829</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>573.668597370829</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5737,46 +5737,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.3337308726216</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V22" t="n">
-        <v>649.7747748463914</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W22" t="n">
-        <v>649.7747748463914</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X22" t="n">
-        <v>649.7747748463914</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y22" t="n">
-        <v>428.9821957028613</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>607.1380464627241</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C25" t="n">
-        <v>438.2018635348172</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>288.0852241224815</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>140.1721305400883</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>140.1721305400883</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>140.1721305400883</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6177,22 +6177,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1193.58790183872</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>904.4592630522783</v>
       </c>
       <c r="V25" t="n">
-        <v>1298.996260473455</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.579090436494</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="X25" t="n">
-        <v>1009.579090436494</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y25" t="n">
-        <v>788.7865112929638</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,16 +6220,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4036.945405494735</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>3782.260917288848</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>3782.260917288848</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>3679.947973060206</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6457,7 +6457,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6469,22 +6469,22 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>247.3337308726216</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028587</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>964.1357418247858</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>709.4512536188989</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>696.115860914169</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>468.1263100161517</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>247.3337308726216</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,31 +6721,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>713.8401545872508</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>713.8401545872508</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>563.7235151749151</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1478.44586072311</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1478.44586072311</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1478.44586072311</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1189.317221936668</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>934.632733730781</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>934.632733730781</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>934.632733730781</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>713.8401545872508</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,61 +6928,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3925.661817631306</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>3925.661817631306</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>3925.661817631306</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929846</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.149147719352</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4437.149147719352</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>4182.464659513465</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>4182.464659513465</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>4182.464659513465</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>3961.672080369935</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,49 +7159,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>1632.773754790662</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4034.708103745581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>3865.771920817674</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>3865.771920817674</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>3717.85882723528</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3717.85882723528</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3717.85882723528</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4437.14914771935</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V40" t="n">
-        <v>4437.14914771935</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W40" t="n">
-        <v>4437.14914771935</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>4437.14914771935</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>4216.35656857582</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7402,10 +7402,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
@@ -7417,10 +7417,10 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619129</v>
@@ -7438,7 +7438,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7493,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>674.9567375132467</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>674.9567375132467</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>524.840098100911</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1123.738867554794</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1123.738867554794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>1123.738867554794</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>895.7493166567768</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y43" t="n">
-        <v>674.9567375132467</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W46" t="n">
-        <v>955.1031435655738</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X46" t="n">
-        <v>727.1135926675564</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>542.1367719529251</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>43.6598726146247</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>199.6230805871087</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>360.5026862907256</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>96.03744927814711</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>189.0022427662468</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>274.3657496970644</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>104.8749102765749</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11141,28 +11141,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>369.0893880493733</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>199.6230805871097</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>14.45548819888961</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>100.1880295904367</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>190.5651958831457</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,19 +23940,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>69.63701571462926</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>116.457232939292</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>227.1576384137948</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>106.3883396785317</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24417,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>117.1932860100019</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>124.4198406026814</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166316</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>273.3209595589084</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>50.96659166315997</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>89.69864666734804</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.1818200706941</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>3.216674846389367</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>194.2874683808268</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>57.18000134477735</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>222.6968858128963</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.18000134477688</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.45760084460977</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>639904.3715111975</v>
+        <v>639904.3715111976</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>639904.3715111974</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
+        <v>779989.6813710688</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710689</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
         <v>742955.2135016472</v>
@@ -26328,22 +26328,22 @@
         <v>742955.2135016471</v>
       </c>
       <c r="G2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="H2" t="n">
-        <v>742955.2135016465</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="I2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="J2" t="n">
         <v>742955.2135016471</v>
       </c>
       <c r="K2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="L2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="M2" t="n">
         <v>742955.2135016472</v>
@@ -26352,7 +26352,7 @@
         <v>742955.2135016472</v>
       </c>
       <c r="O2" t="n">
-        <v>742955.2135016475</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="P2" t="n">
         <v>742955.2135016471</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26447,13 +26447,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
@@ -26481,16 +26481,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-49612.23415810757</v>
       </c>
       <c r="C6" t="n">
+        <v>540355.6450564368</v>
+      </c>
+      <c r="D6" t="n">
         <v>540355.6450564369</v>
       </c>
-      <c r="D6" t="n">
-        <v>540355.645056437</v>
-      </c>
       <c r="E6" t="n">
-        <v>110762.1814545954</v>
+        <v>109787.5901948738</v>
       </c>
       <c r="F6" t="n">
-        <v>635922.2179314914</v>
+        <v>634947.6266717698</v>
       </c>
       <c r="G6" t="n">
-        <v>635922.2179314914</v>
+        <v>634947.6266717699</v>
       </c>
       <c r="H6" t="n">
-        <v>635922.2179314909</v>
+        <v>634947.6266717699</v>
       </c>
       <c r="I6" t="n">
-        <v>635922.2179314916</v>
+        <v>634947.62667177</v>
       </c>
       <c r="J6" t="n">
-        <v>459498.9987388985</v>
+        <v>458524.4074791769</v>
       </c>
       <c r="K6" t="n">
-        <v>635922.2179314916</v>
+        <v>634947.6266717698</v>
       </c>
       <c r="L6" t="n">
-        <v>635922.2179314916</v>
+        <v>634947.62667177</v>
       </c>
       <c r="M6" t="n">
-        <v>501121.2026976544</v>
+        <v>500146.6114379327</v>
       </c>
       <c r="N6" t="n">
-        <v>635922.2179314916</v>
+        <v>634947.6266717699</v>
       </c>
       <c r="O6" t="n">
-        <v>635922.2179314918</v>
+        <v>634947.62667177</v>
       </c>
       <c r="P6" t="n">
-        <v>635922.2179314914</v>
+        <v>634947.6266717697</v>
       </c>
     </row>
   </sheetData>
@@ -26740,25 +26740,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>106.2439634223259</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>270.8319207125916</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>266.3778003188672</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>105.6008286376425</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>4.167450853506892</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>18.11845528385609</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>272.0180034264155</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>205.0767430241433</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24767907654125</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35503,7 +35503,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>570.772884818783</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315247</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>354.084249665091</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>481.9867828282169</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>670.9270633411919</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,7 +36682,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36837,7 +36837,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>499.426619816713</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37162,10 +37162,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37399,16 +37399,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>481.459164628589</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>387.238612517683</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>679.5137650998395</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>481.9867828282178</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4019692.908170909</v>
+        <v>4024632.171019942</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800625</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>163.0793702451209</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>41.03250833502987</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>118.8460297402138</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>173.3244323150252</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686257</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417138</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014439</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>122.3137095599321</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710098</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>78.46129407658356</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>95.67215651543168</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498037</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>224.8952567231529</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>105.0903281190973</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056523</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>104.3542750483873</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056524</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784713</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498035</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>115.5269768002185</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056514</v>
+        <v>143.3158222056524</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>91.94988401775056</v>
+        <v>203.8435192151927</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3836,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>122.6519788371599</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>47.27820527287782</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>118.489884506513</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9576419790511</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4667,22 +4667,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>563.4023475952011</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>563.4023475952011</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>411.2797076961342</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>264.3897601982238</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508783</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.418712568371</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>752.3647613633761</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>341.3788565737686</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>327.4554525123595</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761947</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482878</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359521</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355898</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207832</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5108,7 +5108,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126484</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799369</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471198</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1375.367068982215</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1375.367068982215</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1086.238430195773</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>831.5539419898857</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201016</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,67 +5263,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.0201325405893</v>
+        <v>324.3840174432685</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>867.4971998900063</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>612.8127116841194</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W16" t="n">
-        <v>612.8127116841194</v>
+        <v>954.8146123150557</v>
       </c>
       <c r="X16" t="n">
-        <v>612.8127116841194</v>
+        <v>726.8250614170383</v>
       </c>
       <c r="Y16" t="n">
-        <v>392.0201325405893</v>
+        <v>506.0324822735082</v>
       </c>
     </row>
     <row r="17">
@@ -5500,52 +5500,52 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207832</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.2482765610114</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C22" t="n">
-        <v>710.3120936331045</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T22" t="n">
-        <v>1281.689320534781</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1281.689320534781</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="V22" t="n">
-        <v>1281.689320534781</v>
+        <v>531.3977182706327</v>
       </c>
       <c r="W22" t="n">
-        <v>1281.689320534781</v>
+        <v>241.9805482336721</v>
       </c>
       <c r="X22" t="n">
-        <v>1281.689320534781</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="Y22" t="n">
-        <v>1060.896741391251</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T25" t="n">
-        <v>1193.58790183872</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>904.4592630522783</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="V25" t="n">
-        <v>649.7747748463914</v>
+        <v>531.3977182706327</v>
       </c>
       <c r="W25" t="n">
-        <v>649.7747748463914</v>
+        <v>241.9805482336721</v>
       </c>
       <c r="X25" t="n">
-        <v>649.7747748463914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,16 +6220,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,40 +6238,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583033</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,61 +6454,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583033</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6770,31 +6770,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.9110074201016</v>
+        <v>213.9110074201025</v>
       </c>
       <c r="C34" t="n">
-        <v>213.9110074201016</v>
+        <v>213.9110074201025</v>
       </c>
       <c r="D34" t="n">
-        <v>213.9110074201016</v>
+        <v>213.9110074201025</v>
       </c>
       <c r="E34" t="n">
-        <v>213.9110074201016</v>
+        <v>213.9110074201025</v>
       </c>
       <c r="F34" t="n">
-        <v>213.9110074201016</v>
+        <v>213.9110074201025</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201025</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>986.0022165609673</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>731.3177283550805</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>441.9005583181199</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201016</v>
+        <v>213.9110074201025</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9110074201016</v>
+        <v>213.9110074201025</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823764</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514063</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>531.3977182706327</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>241.9805482336721</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514063</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L39" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>982.3321745379599</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>727.647686332073</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>844.0280401274002</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>554.6108700904397</v>
       </c>
       <c r="X43" t="n">
-        <v>441.900558318119</v>
+        <v>326.6213191924223</v>
       </c>
       <c r="Y43" t="n">
-        <v>221.1079791745888</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,25 +7715,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
@@ -7742,7 +7742,7 @@
         <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609669</v>
+        <v>1209.787631771462</v>
       </c>
       <c r="V46" t="n">
-        <v>789.0753054710162</v>
+        <v>955.1031435655747</v>
       </c>
       <c r="W46" t="n">
-        <v>499.6581354340557</v>
+        <v>665.6859735286141</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>437.6964226305968</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>216.9038434870667</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544521</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298005</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298005</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720713</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711623</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208051</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659902</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208051</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.51353349283</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208051</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>75.60710042367108</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>88.78552702204428</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>190.5651958831457</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>61.34209567542442</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>116.457232939292</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338483</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>117.1932860100019</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338497</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>50.96659166316</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338497</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>50.96659166315997</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731762</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338571</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>194.2874683808268</v>
+        <v>82.39383318338466</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>57.18000134477735</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>171.306448079217</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>61.34209567542429</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.18000134477688</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="9">
@@ -26316,22 +26316,22 @@
         <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
+        <v>779989.681371069</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
-      <c r="D2" t="n">
-        <v>779989.6813710689</v>
-      </c>
       <c r="E2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
       <c r="G2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="H2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016475</v>
       </c>
       <c r="I2" t="n">
         <v>742955.2135016473</v>
@@ -26346,16 +26346,16 @@
         <v>742955.2135016473</v>
       </c>
       <c r="M2" t="n">
+        <v>742955.2135016475</v>
+      </c>
+      <c r="N2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="O2" t="n">
+        <v>742955.2135016475</v>
+      </c>
+      <c r="P2" t="n">
         <v>742955.2135016472</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="P2" t="n">
-        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7.723256517081232e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143897</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143898</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143897</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.669621439</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143898</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
     </row>
     <row r="5">
@@ -26475,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871669</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871669</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-49612.23415810757</v>
       </c>
       <c r="C6" t="n">
+        <v>540355.645056437</v>
+      </c>
+      <c r="D6" t="n">
         <v>540355.6450564368</v>
       </c>
-      <c r="D6" t="n">
-        <v>540355.6450564369</v>
-      </c>
       <c r="E6" t="n">
-        <v>109787.5901948738</v>
+        <v>110664.7223286228</v>
       </c>
       <c r="F6" t="n">
-        <v>634947.6266717698</v>
+        <v>635824.7588055192</v>
       </c>
       <c r="G6" t="n">
-        <v>634947.6266717699</v>
+        <v>635824.7588055193</v>
       </c>
       <c r="H6" t="n">
-        <v>634947.6266717699</v>
+        <v>635824.7588055196</v>
       </c>
       <c r="I6" t="n">
-        <v>634947.62667177</v>
+        <v>635824.7588055198</v>
       </c>
       <c r="J6" t="n">
-        <v>458524.4074791769</v>
+        <v>459401.5396129261</v>
       </c>
       <c r="K6" t="n">
-        <v>634947.6266717698</v>
+        <v>635824.7588055193</v>
       </c>
       <c r="L6" t="n">
-        <v>634947.62667177</v>
+        <v>635824.7588055197</v>
       </c>
       <c r="M6" t="n">
-        <v>500146.6114379327</v>
+        <v>501023.7435716823</v>
       </c>
       <c r="N6" t="n">
-        <v>634947.6266717699</v>
+        <v>635824.7588055196</v>
       </c>
       <c r="O6" t="n">
-        <v>634947.62667177</v>
+        <v>635824.7588055197</v>
       </c>
       <c r="P6" t="n">
-        <v>634947.6266717697</v>
+        <v>635824.7588055194</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541009</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541008</v>
       </c>
     </row>
     <row r="4">
@@ -26795,28 +26795,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545563</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>4.167450853506892</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>4.167450853507141</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>205.0767430241433</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>1.0912804939463</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060687</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176653</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.647069592719</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.452637254089</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946996</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354895</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127069</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622985</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458552</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095119</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361495</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298633</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065634</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336903</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.39802836989225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>138.3897561047522</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081123</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951476</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109127</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349825</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005181</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504666</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091985</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187485</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415056</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303308</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L39" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.76521155233</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502023</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>484.76521155233</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221095</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>484.76521155233</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
